--- a/db/produtos.xlsx
+++ b/db/produtos.xlsx
@@ -1,124 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henricobela/Desktop/Estudos/Challenge/SAP-GPT/db/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1DC947-B379-E54F-A03A-420FB668A7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Produto</t>
-  </si>
-  <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t>Preço</t>
-  </si>
-  <si>
-    <t>Maça</t>
-  </si>
-  <si>
-    <t>Descrição do Produto 1</t>
-  </si>
-  <si>
-    <t>Banana</t>
-  </si>
-  <si>
-    <t>Descrição do Produto 2</t>
-  </si>
-  <si>
-    <t>Manga</t>
-  </si>
-  <si>
-    <t>Descrição do Produto 3</t>
-  </si>
-  <si>
-    <t>Uva</t>
-  </si>
-  <si>
-    <t>Descrição do Produto 4</t>
-  </si>
-  <si>
-    <t>Abacaxi</t>
-  </si>
-  <si>
-    <t>Descrição do Produto 5</t>
-  </si>
-  <si>
-    <t>Melão</t>
-  </si>
-  <si>
-    <t>Descrição do Produto 6</t>
-  </si>
-  <si>
-    <t>Melancia</t>
-  </si>
-  <si>
-    <t>Descrição do Produto 7</t>
-  </si>
-  <si>
-    <t>Pera</t>
-  </si>
-  <si>
-    <t>Descrição do Produto 8</t>
-  </si>
-  <si>
-    <t>Mexerica</t>
-  </si>
-  <si>
-    <t>Descrição do Produto 9</t>
-  </si>
-  <si>
-    <t>Laranja</t>
-  </si>
-  <si>
-    <t>Descrição do Produto 10</t>
-  </si>
-  <si>
-    <t>Refrigerante Coca Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-O Refrigerante Coca Cola é uma bebida refrescante, saborosa e energizante, produzida pela famosa marca Coca-Cola. Esta bebida é feita com água gaseificada, açúcar, caramelo, cafeína e outros ingredientes. O sabor único de Coca-Cola é inconfundível e é reconhecido em todo o mundo. Esta bebida é embalada em garrafas de vidro, latas e embalagens de plástico, para que você possa desfrutar de seu sabor em qualquer lugar. Além disso, a Coca-Cola tem uma variedade de sabores diferentes, como Coca-Cola Zero, Coca-Cola Light e Coca-Cola com sabor de laran</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -133,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,146 +420,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="255.83203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Produto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Descrição</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Preço</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Maça</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Descrição do Produto 1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Descrição do Produto 2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Manga</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Descrição do Produto 3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Descrição do Produto 4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Descrição do Produto 5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Melão</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Descrição do Produto 6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Melancia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Descrição do Produto 7</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Descrição do Produto 8</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mexerica</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Descrição do Produto 9</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Descrição do Produto 10</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Refrigerante Coca Cola</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+O Refrigerante Coca Cola é uma bebida refrescante, saborosa e energizante, produzida pela famosa marca Coca-Cola. Esta bebida é feita com água gaseificada, açúcar, caramelo, cafeína e outros ingredientes. O sabor único de Coca-Cola é inconfundível e é reconhecido em todo o mundo. Esta bebida é embalada em garrafas de vidro, latas e embalagens de plástico, para que você possa desfrutar de seu sabor em qualquer lugar. Além disso, a Coca-Cola tem uma variedade de sabores diferentes, como Coca-Cola Zero, Coca-Cola Light e Coca-Cola com sabor de laran</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Refrigerante Fanta Laranja</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+O Refrigerante Fanta Laranja é um refrescante saboroso que é feito com a combinação perfeita de frutas cítricas. É produzido com os melhores ingredientes, incluindo sucos de laranja, limão e tangerina, para criar um sabor único e refrescante. Possui uma cor vibrante e possui uma</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Refrigerante Fanta Laranja</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+O Refrigerante Fanta Laranja é um refrigerante refrescante, feito com ingredientes naturais, sem adição de açúcar. É elaborado com suco de laranja puro, que lhe confere um sabor único e refrescante. Possui uma cor laranja vibrante, que lhe dá um visual atraente. É livre de conservantes e corantes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Refrigerante Coca Cola</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+O Refrigerante Coca Cola é uma bebida refrescante à base de água gaseificada, açúcar e cafeína. É produzido pela The Coca-Cola Company e é um dos refrigerantes mais populares do mundo. Sua fórmula original foi criada em 1886 por John S. Pemberton. A embalagem tradicional é a garrafa de</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Refrigerante Coca Cola</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+O Refrigerante Coca Cola é uma bebida refrescante e saborosa produzida pela famosa marca Coca-Cola. É feita com água, açúcar, aromas naturais e cafeína, e é embalada em lata de alumínio de 350 ml. O refrigerante Coca-Cola é conhecido por seu sabor característico e refrescante</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/db/produtos.xlsx
+++ b/db/produtos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,8 +608,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-O Refrigerante Coca Cola é uma bebida refrescante, saborosa e energizante, produzida pela famosa marca Coca-Cola. Esta bebida é feita com água gaseificada, açúcar, caramelo, cafeína e outros ingredientes. O sabor único de Coca-Cola é inconfundível e é reconhecido em todo o mundo. Esta bebida é embalada em garrafas de vidro, latas e embalagens de plástico, para que você possa desfrutar de seu sabor em qualquer lugar. Além disso, a Coca-Cola tem uma variedade de sabores diferentes, como Coca-Cola Zero, Coca-Cola Light e Coca-Cola com sabor de laran</t>
+          <t>O Refrigerante Coca Cola é uma bebida refrescante, saborosa e energizante, produzida pela famosa marca Coca-Cola. Esta bebida é feita com água gaseificada, açúcar, caramelo, cafeína e outros ingredientes. O sabor único de Coca-Cola é inconfundível e é reconhecido em todo o mundo. Esta bebida é embalada em garrafas de vidro, latas e embalagens de plástico, para que você possa desfrutar de seu sabor em qualquer lugar. Além disso, a Coca-Cola tem uma variedade de sabores diferentes, como Coca-Cola Zero, Coca-Cola Light e Coca-Cola com sabor de laran</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -622,8 +621,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-O Refrigerante Fanta Laranja é um refrescante saboroso que é feito com a combinação perfeita de frutas cítricas. É produzido com os melhores ingredientes, incluindo sucos de laranja, limão e tangerina, para criar um sabor único e refrescante. Possui uma cor vibrante e possui uma</t>
+          <t>O Refrigerante Fanta Laranja é um refrescante saboroso que é feito com a combinação perfeita de frutas cítricas. É produzido com os melhores ingredientes, incluindo sucos de laranja, limão e tangerina, para criar um sabor único e refrescante. Possui uma cor vibrante e possui uma</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -636,8 +634,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-O Refrigerante Fanta Laranja é um refrigerante refrescante, feito com ingredientes naturais, sem adição de açúcar. É elaborado com suco de laranja puro, que lhe confere um sabor único e refrescante. Possui uma cor laranja vibrante, que lhe dá um visual atraente. É livre de conservantes e corantes</t>
+          <t>O Refrigerante Fanta Laranja é um refrigerante refrescante, feito com ingredientes naturais, sem adição de açúcar. É elaborado com suco de laranja puro, que lhe confere um sabor único e refrescante. Possui uma cor laranja vibrante, que lhe dá um visual atraente. É livre de conservantes e corantes</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -650,8 +647,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-O Refrigerante Coca Cola é uma bebida refrescante à base de água gaseificada, açúcar e cafeína. É produzido pela The Coca-Cola Company e é um dos refrigerantes mais populares do mundo. Sua fórmula original foi criada em 1886 por John S. Pemberton. A embalagem tradicional é a garrafa de</t>
+          <t>O Refrigerante Coca Cola é uma bebida refrescante à base de água gaseificada, açúcar e cafeína. É produzido pela The Coca-Cola Company e é um dos refrigerantes mais populares do mundo. Sua fórmula original foi criada em 1886 por John S. Pemberton. A embalagem tradicional é a garrafa de</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -664,11 +660,192 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-O Refrigerante Coca Cola é uma bebida refrescante e saborosa produzida pela famosa marca Coca-Cola. É feita com água, açúcar, aromas naturais e cafeína, e é embalada em lata de alumínio de 350 ml. O refrigerante Coca-Cola é conhecido por seu sabor característico e refrescante</t>
+          <t>O Refrigerante Coca Cola é uma bebida refrescante e saborosa produzida pela famosa marca Coca-Cola. É feita com água, açúcar, aromas naturais e cafeína, e é embalada em lata de alumínio de 350 ml. O refrigerante Coca-Cola é conhecido por seu sabor característico e refrescante</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Refrigerante Coca Cola</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>O Refrigerante Coca Cola é um dos refrigerantes mais famosos do mundo. Ele é produzido pela The Coca-Cola Company e é conhecido por seu sabor único e refrescante. É feito de água, açúcar, extracto de café, ácido cítrico, caramelo e outros ingredientes. A embalagem é geral</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Refrigerante Coca Cola</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>O Refrigerante Coca Cola é um dos refrigerantes mais populares do mundo. É produzido pela The Coca-Cola Company e contém açúcar, água, corantes e aromatizantes. É conhecido por seu sabor único, que é refrescante e doce. A embalagem da Coca Cola é icônica, com a garrafa cont</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Refrigerante Coca Cola</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>O Refrigerante Coca Cola é um produto refrescante que possui um sabor único e inconfundível. Possui a cor vermelha característica, é produzida com açúcar refinado e é feita com água filtrada e carbonatada. Esta bebida é conhecida mundialmente e é muito popular entre as pessoas</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Refrigerante Coca Cola</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>O Refrigerante Coca Cola é um refrescante, saboroso e icônico refrigerante produzido pela The Coca-Cola Company. É produzido com água, açúcar, cafeína e extratos de plantas. Possui um sabor único e inconfundível, que é reconhecido em todo o mundo. O refrigerante Coca Cola é vendido em</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Refrigerante Coca Cola</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>O Refrigerante Coca Cola é uma bebida carbonatada refrescante, produzida pela The Coca-Cola Company. É produzido desde 1886 e é uma das bebidas mais conhecidas no mundo. É produzido com água, açúcar, extrato de coca e outros ingredientes. Possui um sabor único e refrescante, com</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Refrigerante Coca Cola</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>O Refrigerante Coca Cola é um dos refrigerantes mais populares no mundo. É produzido pela The Coca-Cola Company e é conhecido por seu sabor único e refrescante. É feito com água, açúcar, caramelo, cafeína, ácido cítrico, extratos de plantas e outros aromatizantes. É serv</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Refrigerante Coca Cola</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>O Refrigerante Coca Cola é um dos refrigerantes mais populares do mundo. É produzido pela The Coca-Cola Company e possui um sabor único e refrescante. É feito com ingredientes naturais, como água, açúcar, ácido cítrico, cafeína, caramelo e aromas naturais. É uma bebida leve</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Refrigerante Fanta Laranja</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>O Refrigerante Fanta Laranja é uma bebida refrescante e saborosa, produzida com ingredientes de alta qualidade. O sabor de laranja deste refrigerante é intenso e suculento, oferecendo uma experiência única ao consumidor. É produzido com açúcar de cana, extrato de laranja,</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Refrigerante Fanta Laranja</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>O Refrigerante Fanta Laranja é um refrescante refrescante e saboroso que combina a doçura da laranja com a acidez da fruta para criar um sabor único e irresistível. É fabricado com ingredientes 100% naturais, como açúcar, água, ácido cítrico, corante natural, aromatizantes</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Refrigerante Fanta Laranja</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Refrigerante Fanta Laranja é um refrescante refrescante feito com ingredientes naturais, como água, açúcar, ácido cítrico, corantes e aromatizantes artificiais. É produzido pela The Coca-Cola Company e é muito popular no Brasil. Possui um sabor único de laranja, refrescante e ad</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Refrigerante Fanta Laranja</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>O Refrigerante Fanta Laranja é um dos sabores mais populares da marca Fanta, e é produzido pela The Coca-Cola Company. É um refrigerante de sabor ácido, refrescante e azedo, com um sabor de laranja único. É feito com água, açúcar, carbonato de sódio, ácido cí</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Refrigerante Fanta Laranja</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>O Refrigerante Fanta Laranja é um dos refrigerantes mais populares no Brasil. É produzido a partir de água, açúcar, ácido cítrico, aromas naturais e artificiais, corantes e outros ingredientes. É produzido com açúcar, mas também existe a versão diet, que é produzida com adoçantes.A Fanta Laranja tem um sabor único e refrescante, com notas de laranja. É servido gelado e é ideal para acompanhar refeições ou como uma bebida refrescante durante o dia. É uma das bebidas mais populares no Brasil e é muito apreciada por crianças e adultos. É uma ótima opção para festas e eventos.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Refrigerante Fanta Laranja</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>O Refrigerante Fanta Laranja é uma das bebidas mais populares do Brasil. É feito com ingredientes naturais, como água, açúcar, ácido cítrico, corante caramelo, aromatizante e conservantes. É produzido por meio de um processo de fermentação, onde se misturam todos os ingredientes e, posteriormente, são pasteurizados.A Fanta Laranja possui um sabor refrescante, levemente adocicado, e é muito popular entre os brasileiros. É uma bebida leve, que pode ser consumida a qualquer hora do dia, acompanhando qualquer refeição. É uma ótima opção para quem deseja se refrescar no calor do verão brasileiro.A Fanta Laranja é uma das bebidas mais vendidas no Brasil, pois é uma opção refrescante</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Refrigerante Fanta Laranja</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>O Refrigerante Fanta Laranja é um dos refrigerantes mais populares do Brasil. É feito com ingredientes naturais, como água, açúcar, ácido cítrico, goma xantana, aromas naturais de laranja, corante amarelo 5 e benzoato de sódio. Não contém glúten e é livre de conservantes. O refrigerante Fanta Laranja é produzido por meio de um processo de mistura de todos os ingredientes, seguido de filtragem, pasteurização e envasamento. O resultado é um refrigerante saboroso, refrescante e que possui um aroma cítrico marcante.O Refrigerante Fanta Laranja é extremamente popular no Brasil, sendo um dos refrigerantes mais consumidos no país. É ideal para quem busca um refrigerante saboroso e refrescante para acompanhar refeições ou l</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/db/produtos.xlsx
+++ b/db/produtos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,6 +847,58 @@
       </c>
       <c r="C30" t="inlineStr"/>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Refrigerante Fanta Laranja</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Refrigerante Fanta Laranja é uma bebida refrescante e saborosa que é muito popular no Brasil. É feita com ingredientes simples, como água, açúcar, ácido cítrico, corante e aroma de laranja artificial. Não contém conservantes ou aditivos químicos. É preparada com o método de carbonatação, que dá à bebida a textura levemente carbonatada e refrescante.A Fanta Laranja é a segunda bebida mais vendida no Brasil, perdendo apenas para a Fanta Laranja. É muito popular entre crianças e adultos, e é frequentemente servida em festas e eventos. Seu sabor refrescante e doce é adorado por muitos, tornando-a uma das bebidas mais populares do país.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Refrigerante Fanta Laranja</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>O Refrigerante Fanta Laranja é um dos mais populares refrigerantes do Brasil. É preparado com água gaseificada, açúcar, ácido cítrico, corantes, aromatizantes artificiais e cafeína. Seu sabor de laranja é suave e refrescante, e é muito apreciado entre os brasileiros. É um dos refrigerantes mais vendidos no país, sendo ideal para refrescar o dia a dia. É fácil de preparar e consumir: basta abrir a lata e servir.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Refrigerante Fanta Laranja</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Refrigerante Fanta Laranja é um refrescante saboroso produzido pela The Coca-Cola Company. É feito a partir de água, açúcar, ácido cítrico, aroma natural de laranja, corante amarelo 5 e outros ingredientes. É uma bebida muito popular no Brasil, com um sabor único e refrescante. O Fanta Laranja não requer preparo, basta abrir a garrafa e desfrutar. É uma bebida refrescante, com sabor de laranja suave e refrescante. É muito consumido no Brasil, principalmente em dias quentes, e é uma das marcas mais populares de refrigerantes.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Refrigerante Fanta Laranja</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Refrigerante Fanta Laranja é um dos refrigerantes mais populares do Brasil. É produzido com água, açúcar, ácido cítrico, ácido fosfórico, corante artificial, aromatizantes artificiais e cafeína. É conhecido por seu sabor refrescante e doce de laranja, que é adorado por muitas pessoas. Não requer preparo, pois é um refrigerante pronto para consumo. É muito popular no Brasil, sendo encontrado em praticamente todos os supermercados, mercados e lanchonetes do país. É um dos refrigerantes mais vendidos no país, sendo muito procurado por seu sabor único e refrescante.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
